--- a/Documentation/Stroke.xlsx
+++ b/Documentation/Stroke.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stroke 1.0" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -309,6 +309,12 @@
     <t xml:space="preserve">Glucose and BMI data with bins does not show 249 total for stroke patients.</t>
   </si>
   <si>
+    <t xml:space="preserve">Added two hypothesis tests. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hypothesis test with heart diesease gives a pvalue of 0. Why?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pipeline 1.0</t>
   </si>
   <si>
@@ -400,6 +406,12 @@
   </si>
   <si>
     <t xml:space="preserve">Does not show 249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthy Patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do side by side visuals for Stroke and Healthy</t>
   </si>
 </sst>
 </file>
@@ -725,8 +737,8 @@
   </sheetPr>
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4039,8 +4051,8 @@
   </sheetPr>
   <dimension ref="A1:L985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4169,13 +4181,17 @@
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7217,7 +7233,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -7226,13 +7242,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -7241,13 +7257,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>39</v>
@@ -7256,7 +7272,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
@@ -12868,24 +12884,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -12894,10 +12910,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -12906,10 +12922,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
@@ -12920,10 +12936,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -12932,10 +12948,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -12944,7 +12960,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="F7" s="4"/>
@@ -12954,30 +12970,30 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -15998,8 +16014,8 @@
   </sheetPr>
   <dimension ref="A1:K985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16014,24 +16030,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -16040,10 +16056,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -16051,8 +16067,12 @@
       <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>

--- a/Documentation/Stroke.xlsx
+++ b/Documentation/Stroke.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -306,13 +306,28 @@
     <t xml:space="preserve">Stroke 2.1.0</t>
   </si>
   <si>
+    <t xml:space="preserve">2024 06 20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Glucose and BMI data with bins does not show 249 total for stroke patients.</t>
   </si>
   <si>
     <t xml:space="preserve">Added two hypothesis tests. </t>
   </si>
   <si>
+    <t xml:space="preserve">Stroke 2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 06 19</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Hypothesis test with heart diesease gives a pvalue of 0. Why?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke 2.1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Pipeline 1.0</t>
@@ -391,6 +406,33 @@
   </si>
   <si>
     <t xml:space="preserve">K-Fold on mulitple models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance the data not by adding or taking away data but by weights.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take care of outliers: Create a new column that shows which row is an outlier (1) and which is not (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">According to Pertu, models that get the best performance are XGB Boost and LITE GPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s important to use the right model for the right type of problem: Regression or Classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must scale the data</t>
   </si>
   <si>
     <t xml:space="preserve">Information</t>
@@ -699,9 +741,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -715,7 +757,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9546480" cy="4463280"/>
+          <a:ext cx="9546120" cy="4462920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4051,8 +4093,8 @@
   </sheetPr>
   <dimension ref="A1:L985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4171,9 +4213,11 @@
       <c r="B10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -4182,22 +4226,31 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,9 +4259,14 @@
       <c r="D14" s="2"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7233,7 +7291,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -7242,13 +7300,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -7257,13 +7315,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>39</v>
@@ -7272,7 +7330,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
@@ -12869,7 +12927,7 @@
   <dimension ref="A1:K985"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12884,24 +12942,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -12910,10 +12968,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -12922,10 +12980,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
@@ -12936,10 +12994,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -12948,10 +13006,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -12960,7 +13018,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="F7" s="4"/>
@@ -12970,60 +13028,79 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16030,24 +16107,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -16056,10 +16133,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -16068,10 +16145,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>

--- a/Documentation/Stroke.xlsx
+++ b/Documentation/Stroke.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -330,6 +330,21 @@
     <t xml:space="preserve">Stroke 2.1.2</t>
   </si>
   <si>
+    <t xml:space="preserve">Created bins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strokke 2.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 06 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plot_mi_scores(features, mi_scores) was created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not all the features display in x axis.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pipeline 1.0</t>
   </si>
   <si>
@@ -444,16 +459,31 @@
     <t xml:space="preserve">249</t>
   </si>
   <si>
-    <t xml:space="preserve">BMI and Glucose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does not show 249</t>
-  </si>
-  <si>
     <t xml:space="preserve">Healthy Patients</t>
   </si>
   <si>
     <t xml:space="preserve">Do side by side visuals for Stroke and Healthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put the Z test into a function like the T Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side by Side Bar Plots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look in Football project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.describe </t>
   </si>
 </sst>
 </file>
@@ -587,7 +617,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,6 +652,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -741,9 +775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
+      <xdr:colOff>316080</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -757,7 +791,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9546120" cy="4462920"/>
+          <a:ext cx="9545760" cy="4462560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4093,8 +4127,8 @@
   </sheetPr>
   <dimension ref="A1:L985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4266,107 +4300,125 @@
       <c r="B15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="2"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="D19" s="2"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="D20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="D21" s="2"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="D22" s="2"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="D23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="D25" s="2"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="D26" s="2"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="4"/>
       <c r="D33" s="2"/>
@@ -7291,7 +7343,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -7300,13 +7352,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -7315,13 +7367,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>39</v>
@@ -7330,7 +7382,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
@@ -10405,2504 +10457,2504 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="9" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="10" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="10"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="10"/>
-      <c r="AB29" s="10"/>
-      <c r="AC29" s="10"/>
-      <c r="AD29" s="10"/>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="10"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="10"/>
-      <c r="AG30" s="10"/>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="10"/>
-      <c r="AG31" s="10"/>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
-      <c r="AK32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
-      <c r="AK35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
-      <c r="AK40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-      <c r="AK41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
-      <c r="AK43" s="10"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
-      <c r="AK44" s="10"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="10"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="10"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="10"/>
-      <c r="AK47" s="10"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
     </row>
     <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
-      <c r="AK48" s="10"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="10"/>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="10"/>
-      <c r="AE51" s="10"/>
-      <c r="AF51" s="10"/>
-      <c r="AG51" s="10"/>
-      <c r="AH51" s="10"/>
-      <c r="AI51" s="10"/>
-      <c r="AJ51" s="10"/>
-      <c r="AK51" s="10"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
-      <c r="AD52" s="10"/>
-      <c r="AE52" s="10"/>
-      <c r="AF52" s="10"/>
-      <c r="AG52" s="10"/>
-      <c r="AH52" s="10"/>
-      <c r="AI52" s="10"/>
-      <c r="AJ52" s="10"/>
-      <c r="AK52" s="10"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="10"/>
-      <c r="AB53" s="10"/>
-      <c r="AC53" s="10"/>
-      <c r="AD53" s="10"/>
-      <c r="AE53" s="10"/>
-      <c r="AF53" s="10"/>
-      <c r="AG53" s="10"/>
-      <c r="AH53" s="10"/>
-      <c r="AI53" s="10"/>
-      <c r="AJ53" s="10"/>
-      <c r="AK53" s="10"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
     </row>
     <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
-      <c r="AE54" s="10"/>
-      <c r="AF54" s="10"/>
-      <c r="AG54" s="10"/>
-      <c r="AH54" s="10"/>
-      <c r="AI54" s="10"/>
-      <c r="AJ54" s="10"/>
-      <c r="AK54" s="10"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
-      <c r="AF55" s="10"/>
-      <c r="AG55" s="10"/>
-      <c r="AH55" s="10"/>
-      <c r="AI55" s="10"/>
-      <c r="AJ55" s="10"/>
-      <c r="AK55" s="10"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-      <c r="AH56" s="10"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="10"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-      <c r="AH57" s="10"/>
-      <c r="AI57" s="10"/>
-      <c r="AJ57" s="10"/>
-      <c r="AK57" s="10"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
     </row>
     <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10"/>
-      <c r="AA59" s="10"/>
-      <c r="AB59" s="10"/>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="10"/>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="10"/>
-      <c r="AG59" s="10"/>
-      <c r="AH59" s="10"/>
-      <c r="AI59" s="10"/>
-      <c r="AJ59" s="10"/>
-      <c r="AK59" s="10"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
     </row>
     <row r="60" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
-      <c r="AE60" s="10"/>
-      <c r="AF60" s="10"/>
-      <c r="AG60" s="10"/>
-      <c r="AH60" s="10"/>
-      <c r="AI60" s="10"/>
-      <c r="AJ60" s="10"/>
-      <c r="AK60" s="10"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="10"/>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="10"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="10"/>
-      <c r="AI61" s="10"/>
-      <c r="AJ61" s="10"/>
-      <c r="AK61" s="10"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
     </row>
     <row r="62" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="10"/>
-      <c r="AB62" s="10"/>
-      <c r="AC62" s="10"/>
-      <c r="AD62" s="10"/>
-      <c r="AE62" s="10"/>
-      <c r="AF62" s="10"/>
-      <c r="AG62" s="10"/>
-      <c r="AH62" s="10"/>
-      <c r="AI62" s="10"/>
-      <c r="AJ62" s="10"/>
-      <c r="AK62" s="10"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
-      <c r="Z63" s="10"/>
-      <c r="AA63" s="10"/>
-      <c r="AB63" s="10"/>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="10"/>
-      <c r="AE63" s="10"/>
-      <c r="AF63" s="10"/>
-      <c r="AG63" s="10"/>
-      <c r="AH63" s="10"/>
-      <c r="AI63" s="10"/>
-      <c r="AJ63" s="10"/>
-      <c r="AK63" s="10"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10"/>
-      <c r="AA64" s="10"/>
-      <c r="AB64" s="10"/>
-      <c r="AC64" s="10"/>
-      <c r="AD64" s="10"/>
-      <c r="AE64" s="10"/>
-      <c r="AF64" s="10"/>
-      <c r="AG64" s="10"/>
-      <c r="AH64" s="10"/>
-      <c r="AI64" s="10"/>
-      <c r="AJ64" s="10"/>
-      <c r="AK64" s="10"/>
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12932,8 +12984,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="6.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="138.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.82"/>
@@ -12941,171 +12993,171 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>104</v>
+      <c r="A1" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>108</v>
+      <c r="A2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>110</v>
+      <c r="B3" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>112</v>
+      <c r="B4" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>114</v>
+      <c r="B5" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>116</v>
+      <c r="B6" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>118</v>
+      <c r="B7" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>119</v>
+      <c r="B8" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16" t="s">
-        <v>121</v>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16" t="s">
-        <v>124</v>
+      <c r="A11" s="15"/>
+      <c r="B11" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16" t="s">
-        <v>126</v>
+      <c r="A12" s="15"/>
+      <c r="B12" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16" t="s">
-        <v>128</v>
+      <c r="A13" s="15"/>
+      <c r="B13" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16" t="s">
-        <v>131</v>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
       <c r="F16" s="4"/>
     </row>
@@ -13114,102 +13166,102 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="2"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="2"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
@@ -13221,36 +13273,36 @@
       <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="16"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16091,14 +16143,14 @@
   </sheetPr>
   <dimension ref="A1:K985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="6.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="138.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.82"/>
@@ -16106,130 +16158,140 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>104</v>
+      <c r="A1" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>134</v>
+      <c r="A2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="2"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>138</v>
+      <c r="B4" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="2"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="2"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="2"/>
       <c r="F16" s="4"/>
     </row>
@@ -16238,102 +16300,102 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="2"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="2"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="2"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="2"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
@@ -16345,36 +16407,36 @@
       <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="16"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="16"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="16"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="16"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="16"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="16"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="16"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Stroke.xlsx
+++ b/Documentation/Stroke.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Stroke 1.0" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="152">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -432,7 +432,13 @@
     <t xml:space="preserve">Outliers</t>
   </si>
   <si>
-    <t xml:space="preserve">Take care of outliers: Create a new column that shows which row is an outlier (1) and which is not (0)</t>
+    <t xml:space="preserve">Take care of outliers: Create a new column that shows which row is an outlier (1) and which is not (0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outliers in Football Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outliers in Coursera Project</t>
   </si>
   <si>
     <t xml:space="preserve">Models</t>
@@ -617,7 +623,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,10 +658,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -775,9 +777,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>315720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -791,7 +793,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9545760" cy="4462560"/>
+          <a:ext cx="9545400" cy="4462200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4127,8 +4129,8 @@
   </sheetPr>
   <dimension ref="A1:L985"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4325,7 +4327,7 @@
       <c r="C17" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G17" s="4"/>
@@ -4423,64 +4425,64 @@
       <c r="B33" s="4"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="5"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="4"/>
       <c r="D35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="4"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="4"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="4"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="4"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="4"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="4"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="4"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10457,2504 +10459,2504 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="10" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="9" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="11"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="11"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="11"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="11"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-      <c r="AI36" s="11"/>
-      <c r="AJ36" s="11"/>
-      <c r="AK36" s="11"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-      <c r="AI37" s="11"/>
-      <c r="AJ37" s="11"/>
-      <c r="AK37" s="11"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="11"/>
-      <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
-      <c r="AI38" s="11"/>
-      <c r="AJ38" s="11"/>
-      <c r="AK38" s="11"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="11"/>
-      <c r="AD39" s="11"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="11"/>
-      <c r="AI39" s="11"/>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="11"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
-      <c r="AG40" s="11"/>
-      <c r="AH40" s="11"/>
-      <c r="AI40" s="11"/>
-      <c r="AJ40" s="11"/>
-      <c r="AK40" s="11"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11"/>
-      <c r="AD41" s="11"/>
-      <c r="AE41" s="11"/>
-      <c r="AF41" s="11"/>
-      <c r="AG41" s="11"/>
-      <c r="AH41" s="11"/>
-      <c r="AI41" s="11"/>
-      <c r="AJ41" s="11"/>
-      <c r="AK41" s="11"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="11"/>
-      <c r="AD42" s="11"/>
-      <c r="AE42" s="11"/>
-      <c r="AF42" s="11"/>
-      <c r="AG42" s="11"/>
-      <c r="AH42" s="11"/>
-      <c r="AI42" s="11"/>
-      <c r="AJ42" s="11"/>
-      <c r="AK42" s="11"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="11"/>
-      <c r="AE43" s="11"/>
-      <c r="AF43" s="11"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="11"/>
-      <c r="AI43" s="11"/>
-      <c r="AJ43" s="11"/>
-      <c r="AK43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
-      <c r="AI44" s="11"/>
-      <c r="AJ44" s="11"/>
-      <c r="AK44" s="11"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="11"/>
-      <c r="AF45" s="11"/>
-      <c r="AG45" s="11"/>
-      <c r="AH45" s="11"/>
-      <c r="AI45" s="11"/>
-      <c r="AJ45" s="11"/>
-      <c r="AK45" s="11"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="10"/>
+      <c r="AG45" s="10"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
+      <c r="AJ45" s="10"/>
+      <c r="AK45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="11"/>
-      <c r="AI46" s="11"/>
-      <c r="AJ46" s="11"/>
-      <c r="AK46" s="11"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+      <c r="AJ46" s="10"/>
+      <c r="AK46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
-      <c r="AI47" s="11"/>
-      <c r="AJ47" s="11"/>
-      <c r="AK47" s="11"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11"/>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="11"/>
-      <c r="AJ48" s="11"/>
-      <c r="AK48" s="11"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="11"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="11"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
-      <c r="AF50" s="11"/>
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="11"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="11"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
-      <c r="AK51" s="11"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="11"/>
-      <c r="AI52" s="11"/>
-      <c r="AJ52" s="11"/>
-      <c r="AK52" s="11"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="11"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11"/>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="11"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="10"/>
+      <c r="AK54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="11"/>
-      <c r="AF55" s="11"/>
-      <c r="AG55" s="11"/>
-      <c r="AH55" s="11"/>
-      <c r="AI55" s="11"/>
-      <c r="AJ55" s="11"/>
-      <c r="AK55" s="11"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
-      <c r="AD56" s="11"/>
-      <c r="AE56" s="11"/>
-      <c r="AF56" s="11"/>
-      <c r="AG56" s="11"/>
-      <c r="AH56" s="11"/>
-      <c r="AI56" s="11"/>
-      <c r="AJ56" s="11"/>
-      <c r="AK56" s="11"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="11"/>
-      <c r="AH57" s="11"/>
-      <c r="AI57" s="11"/>
-      <c r="AJ57" s="11"/>
-      <c r="AK57" s="11"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11"/>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
-      <c r="AG59" s="11"/>
-      <c r="AH59" s="11"/>
-      <c r="AI59" s="11"/>
-      <c r="AJ59" s="11"/>
-      <c r="AK59" s="11"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
-      <c r="AH60" s="11"/>
-      <c r="AI60" s="11"/>
-      <c r="AJ60" s="11"/>
-      <c r="AK60" s="11"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="11"/>
-      <c r="AB61" s="11"/>
-      <c r="AC61" s="11"/>
-      <c r="AD61" s="11"/>
-      <c r="AE61" s="11"/>
-      <c r="AF61" s="11"/>
-      <c r="AG61" s="11"/>
-      <c r="AH61" s="11"/>
-      <c r="AI61" s="11"/>
-      <c r="AJ61" s="11"/>
-      <c r="AK61" s="11"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
+      <c r="AJ61" s="10"/>
+      <c r="AK61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
-      <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
-      <c r="AG62" s="11"/>
-      <c r="AH62" s="11"/>
-      <c r="AI62" s="11"/>
-      <c r="AJ62" s="11"/>
-      <c r="AK62" s="11"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="10"/>
+      <c r="AH62" s="10"/>
+      <c r="AI62" s="10"/>
+      <c r="AJ62" s="10"/>
+      <c r="AK62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11"/>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-      <c r="AK63" s="11"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="10"/>
+      <c r="AK63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="11"/>
-      <c r="AE64" s="11"/>
-      <c r="AF64" s="11"/>
-      <c r="AG64" s="11"/>
-      <c r="AH64" s="11"/>
-      <c r="AI64" s="11"/>
-      <c r="AJ64" s="11"/>
-      <c r="AK64" s="11"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="10"/>
+      <c r="AK64" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12976,16 +12978,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K985"/>
+  <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="6.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="138.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.82"/>
@@ -12993,7 +12995,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -13004,10 +13006,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -13016,10 +13018,10 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="n">
+      <c r="A3" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -13028,10 +13030,10 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -13042,10 +13044,10 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -13054,10 +13056,10 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -13066,20 +13068,20 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="A7" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
+      <c r="A8" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -13088,8 +13090,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -13098,8 +13100,8 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -13108,8 +13110,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -13118,8 +13120,8 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -13127,188 +13129,198 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="2"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
       <c r="C19" s="2"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15"/>
-      <c r="B38" s="17"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="17"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="17"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="17"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="17"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="17"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="16"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="16"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16124,6 +16136,12 @@
     </row>
     <row r="985" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C985" s="2"/>
+    </row>
+    <row r="986" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C986" s="2"/>
+    </row>
+    <row r="987" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C987" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16149,8 +16167,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="6.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="6.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="19.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="138.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.82"/>
@@ -16158,140 +16176,140 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>139</v>
+      <c r="B2" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>141</v>
+      <c r="B4" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>143</v>
+      <c r="B5" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>145</v>
+      <c r="B6" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="A7" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>147</v>
+      <c r="B7" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
+      <c r="A8" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>149</v>
+      <c r="B8" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="2"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="2"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="16"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="2"/>
       <c r="F16" s="4"/>
     </row>
@@ -16300,102 +16318,102 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="2"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="2"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="2"/>
       <c r="F20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2"/>
       <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="2"/>
       <c r="F22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="2"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="2"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="2"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
@@ -16407,36 +16425,36 @@
       <c r="C37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="17"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="17"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="17"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/Stroke.xlsx
+++ b/Documentation/Stroke.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stroke 1.0" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t xml:space="preserve">Not all the features display in x axis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine learning started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaling, Encoding done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strokke 2.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 06 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine learning started.</t>
   </si>
   <si>
     <t xml:space="preserve">Pipeline 1.0</t>
@@ -777,9 +792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>315720</xdr:colOff>
+      <xdr:colOff>315000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -793,7 +808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9545400" cy="4462200"/>
+          <a:ext cx="9544680" cy="4461480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4127,10 +4142,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L985"/>
+  <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4162,10 +4177,10 @@
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -4173,41 +4188,43 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="G6" s="4"/>
     </row>
@@ -4215,10 +4232,10 @@
       <c r="A7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -4226,19 +4243,19 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="G9" s="4"/>
     </row>
@@ -4246,10 +4263,10 @@
       <c r="A10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -4257,129 +4274,149 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="D13" s="2" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="D14" s="2"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="D18" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="D24" s="2"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="2"/>
       <c r="G25" s="4"/>
     </row>
@@ -4387,17 +4424,18 @@
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="D26" s="2"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="4"/>
       <c r="D27" s="2"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4427,28 +4465,29 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="4"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="5"/>
       <c r="D35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4"/>
       <c r="D36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
       <c r="B39" s="4"/>
       <c r="D39" s="2"/>
     </row>
@@ -4477,6 +4516,7 @@
       <c r="D45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="4"/>
       <c r="D46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4525,7 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7295,6 +7335,9 @@
     </row>
     <row r="985" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D985" s="2"/>
+    </row>
+    <row r="986" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D986" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7345,7 +7388,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -7354,13 +7397,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -7369,13 +7412,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>39</v>
@@ -7384,7 +7427,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
@@ -12980,7 +13023,7 @@
   </sheetPr>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -12996,24 +13039,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -13022,10 +13065,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -13034,10 +13077,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
@@ -13048,10 +13091,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -13060,10 +13103,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -13072,7 +13115,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2"/>
       <c r="F7" s="4"/>
@@ -13082,50 +13125,50 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -13133,7 +13176,7 @@
       <c r="A13" s="14"/>
       <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -13141,17 +13184,17 @@
       <c r="A14" s="14"/>
       <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -13159,17 +13202,17 @@
       <c r="A16" s="14"/>
       <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -16177,24 +16220,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -16209,10 +16252,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
@@ -16223,10 +16266,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -16235,10 +16278,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -16247,10 +16290,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -16259,10 +16302,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F8" s="4"/>
     </row>

--- a/Documentation/Stroke.xlsx
+++ b/Documentation/Stroke.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="159">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -333,7 +333,7 @@
     <t xml:space="preserve">Created bins</t>
   </si>
   <si>
-    <t xml:space="preserve">Strokke 2.1.3</t>
+    <t xml:space="preserve">Stroke 2.1.3</t>
   </si>
   <si>
     <t xml:space="preserve">2024 06 21</t>
@@ -351,13 +351,19 @@
     <t xml:space="preserve">Scaling, Encoding done</t>
   </si>
   <si>
-    <t xml:space="preserve">Strokke 2.1.4</t>
+    <t xml:space="preserve">Stroke 2.1.4</t>
   </si>
   <si>
     <t xml:space="preserve">2024 06 22</t>
   </si>
   <si>
     <t xml:space="preserve">Machine learning started.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024 06 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double graphs</t>
   </si>
   <si>
     <t xml:space="preserve">Pipeline 1.0</t>
@@ -792,9 +798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>315000</xdr:colOff>
+      <xdr:colOff>314640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -808,7 +814,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9544680" cy="4461480"/>
+          <a:ext cx="9544320" cy="4461120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4144,8 +4150,8 @@
   </sheetPr>
   <dimension ref="A1:L986"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4414,10 +4420,16 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7388,7 +7400,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
@@ -7397,13 +7409,13 @@
         <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>39</v>
@@ -7412,13 +7424,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>39</v>
@@ -7427,7 +7439,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
@@ -13039,24 +13051,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -13065,10 +13077,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -13077,10 +13089,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
@@ -13091,10 +13103,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -13103,10 +13115,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -13115,7 +13127,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2"/>
       <c r="F7" s="4"/>
@@ -13125,50 +13137,50 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
       <c r="B10" s="16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
       <c r="B11" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
       <c r="B12" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -13176,7 +13188,7 @@
       <c r="A13" s="14"/>
       <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -13184,17 +13196,17 @@
       <c r="A14" s="14"/>
       <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14"/>
       <c r="B15" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -13202,17 +13214,17 @@
       <c r="A16" s="14"/>
       <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -16220,24 +16232,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -16252,10 +16264,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
@@ -16266,10 +16278,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -16278,10 +16290,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -16290,10 +16302,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -16302,10 +16314,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F8" s="4"/>
     </row>
